--- a/Publish/publish_win/nutil/Example.xlsx
+++ b/Publish/publish_win/nutil/Example.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leuat\Documents\GitHub\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leuat\Documents\GitHub\nutil\Publish\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25440" windowHeight="14016"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25440" windowHeight="14016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PCounter" sheetId="15" r:id="rId1"/>
-    <sheet name="LargeFilesTest" sheetId="11" r:id="rId2"/>
-    <sheet name="WorkTest" sheetId="13" r:id="rId3"/>
-    <sheet name="AutoContrast" sheetId="14" r:id="rId4"/>
+    <sheet name="CrashTest" sheetId="16" r:id="rId1"/>
+    <sheet name="PCounter" sheetId="15" r:id="rId2"/>
+    <sheet name="LargeFilesTest" sheetId="11" r:id="rId3"/>
+    <sheet name="WorkTest" sheetId="13" r:id="rId4"/>
+    <sheet name="AutoContrast" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="168">
   <si>
     <t>Animal</t>
   </si>
@@ -189,15 +190,6 @@
     <t>Hierarchy Analysis List</t>
   </si>
   <si>
-    <t>C:\data\input\tg2576_m287_1D1_FINAL\3_seg_dir_ilastikoutput\</t>
-  </si>
-  <si>
-    <t>C:\data\input\tg2576_m287_1D1_FINAL\4_output_dir\</t>
-  </si>
-  <si>
-    <t>c:\data\input\tg2576_m287_1D1_FINAL\2_atlas_dir\</t>
-  </si>
-  <si>
     <t>Cortex</t>
   </si>
   <si>
@@ -445,6 +437,96 @@
   </si>
   <si>
     <t>test23</t>
+  </si>
+  <si>
+    <t>CrashTest</t>
+  </si>
+  <si>
+    <t>H201_10b-Image Export-46_s1</t>
+  </si>
+  <si>
+    <t>H201_10b-Image Export-46_s2</t>
+  </si>
+  <si>
+    <t>H201_10b-Image Export-46_s3</t>
+  </si>
+  <si>
+    <t>d:\data\rotation\H201b\</t>
+  </si>
+  <si>
+    <t>d:\data\rotation\output\</t>
+  </si>
+  <si>
+    <t>H201_1b-Image Export-37_s1</t>
+  </si>
+  <si>
+    <t>H201_1b-Image Export-37_s2</t>
+  </si>
+  <si>
+    <t>H201_1b-Image Export-37_s3</t>
+  </si>
+  <si>
+    <t>H201_1b-Image Export-37_s4</t>
+  </si>
+  <si>
+    <t>H201_1b-Image Export-37_s5</t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>H201_2b-Image Export-38_s1</t>
+  </si>
+  <si>
+    <t>H201_2b-Image Export-38_s2</t>
+  </si>
+  <si>
+    <t>H201_2b-Image Export-38_s3</t>
+  </si>
+  <si>
+    <t>H201_2b-Image Export-38_s4</t>
+  </si>
+  <si>
+    <t>H201_3b-Image Export-39_s1</t>
+  </si>
+  <si>
+    <t>H201_3b-Image Export-39_s2</t>
+  </si>
+  <si>
+    <t>H201_3b-Image Export-39_s3</t>
+  </si>
+  <si>
+    <t>H201_3b-Image Export-39_s4</t>
+  </si>
+  <si>
+    <t>H201_11b-Image Export-47_s1</t>
+  </si>
+  <si>
+    <t>H201_11b-Image Export-47_s2</t>
+  </si>
+  <si>
+    <t>H201_11b-Image Export-47_s3</t>
+  </si>
+  <si>
+    <t>col:255,255,255</t>
+  </si>
+  <si>
+    <t>col:255,255,0</t>
+  </si>
+  <si>
+    <t>col:255,0,255</t>
+  </si>
+  <si>
+    <t>C:\data\input\tg2576_m287_1D1_FINAL\3_seg_dir_ilastikoutput</t>
+  </si>
+  <si>
+    <t>C:\data\input\tg2576_m287_1D1_FINAL\4_output_dir</t>
+  </si>
+  <si>
+    <t>c:\data\input\tg2576_m287_1D1_FINAL\2_atlas_dir</t>
   </si>
 </sst>
 </file>
@@ -850,10 +932,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J322"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="39.44140625" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>255</v>
+      </c>
+      <c r="C4" s="4">
+        <v>255</v>
+      </c>
+      <c r="D4" s="4">
+        <v>255</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>256</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="11">
+        <v>45</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="11">
+        <v>45</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="11">
+        <v>45</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="11">
+        <v>34</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="11">
+        <v>-34</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="11">
+        <v>32</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="11">
+        <v>543</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="11">
+        <v>745</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="11">
+        <v>4362</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="11">
+        <v>2345</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="11">
+        <v>4235</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="11">
+        <v>7</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="11">
+        <v>683</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="11">
+        <v>345</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="11">
+        <v>345</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="11">
+        <v>45</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="11">
+        <v>8</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="11">
+        <v>84</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="11">
+        <v>6453</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>"png,jpg,gif,tif"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"jpeg, lzw, none"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"Rotation"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J323"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -888,7 +1534,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -942,7 +1588,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -958,7 +1604,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -976,7 +1622,7 @@
         <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1013,15 +1659,15 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B11" s="4">
         <v>60</v>
@@ -1032,7 +1678,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I12" t="s">
         <v>3</v>
@@ -1040,7 +1686,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1051,7 +1697,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1059,7 +1705,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1067,7 +1713,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1075,7 +1721,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1083,7 +1729,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1091,7 +1737,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1099,7 +1745,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1107,7 +1753,7 @@
     </row>
     <row r="21" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1115,7 +1761,7 @@
     </row>
     <row r="22" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1123,7 +1769,7 @@
     </row>
     <row r="23" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1131,7 +1777,7 @@
     </row>
     <row r="24" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1139,7 +1785,7 @@
     </row>
     <row r="25" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1147,7 +1793,7 @@
     </row>
     <row r="26" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1155,7 +1801,7 @@
     </row>
     <row r="27" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -1163,7 +1809,7 @@
     </row>
     <row r="28" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1171,7 +1817,7 @@
     </row>
     <row r="29" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -1179,7 +1825,7 @@
     </row>
     <row r="30" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1187,7 +1833,7 @@
     </row>
     <row r="31" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -1195,7 +1841,7 @@
     </row>
     <row r="32" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1203,7 +1849,7 @@
     </row>
     <row r="33" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1211,7 +1857,7 @@
     </row>
     <row r="34" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1219,7 +1865,7 @@
     </row>
     <row r="35" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -1227,7 +1873,7 @@
     </row>
     <row r="36" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -1235,7 +1881,7 @@
     </row>
     <row r="37" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1243,7 +1889,7 @@
     </row>
     <row r="38" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -1251,7 +1897,7 @@
     </row>
     <row r="39" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -1259,7 +1905,7 @@
     </row>
     <row r="40" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1267,7 +1913,7 @@
     </row>
     <row r="41" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -1275,7 +1921,7 @@
     </row>
     <row r="42" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1283,7 +1929,7 @@
     </row>
     <row r="43" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1291,7 +1937,7 @@
     </row>
     <row r="44" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -1299,7 +1945,7 @@
     </row>
     <row r="45" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -1307,7 +1953,7 @@
     </row>
     <row r="46" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -1315,7 +1961,7 @@
     </row>
     <row r="47" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -1323,7 +1969,7 @@
     </row>
     <row r="48" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -1331,7 +1977,7 @@
     </row>
     <row r="49" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -1339,7 +1985,7 @@
     </row>
     <row r="50" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -1347,7 +1993,7 @@
     </row>
     <row r="51" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -1355,7 +2001,7 @@
     </row>
     <row r="52" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -1363,7 +2009,7 @@
     </row>
     <row r="53" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -1371,7 +2017,7 @@
     </row>
     <row r="54" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -1379,7 +2025,7 @@
     </row>
     <row r="55" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -1387,7 +2033,7 @@
     </row>
     <row r="56" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -1395,7 +2041,7 @@
     </row>
     <row r="57" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -1403,7 +2049,7 @@
     </row>
     <row r="58" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -1411,7 +2057,7 @@
     </row>
     <row r="59" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -1419,7 +2065,7 @@
     </row>
     <row r="60" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -1427,7 +2073,7 @@
     </row>
     <row r="61" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -1435,7 +2081,7 @@
     </row>
     <row r="62" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -1443,7 +2089,7 @@
     </row>
     <row r="63" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -1451,77 +2097,77 @@
     </row>
     <row r="64" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="1" t="s">
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="1" t="s">
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C72" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
         <v>54</v>
       </c>
@@ -1532,1940 +2178,1963 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="F76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="1">
+    <row r="77" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="1">
         <v>912</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C78" s="1">
         <v>68</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D78" s="1">
         <v>549</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E78" s="1">
         <v>1089</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="1">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="1">
         <v>920</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C79" s="1">
         <v>667</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D79" s="1">
         <v>629</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E79" s="1">
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="1">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="1">
         <v>928</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C80" s="1">
         <v>320</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D80" s="1">
         <v>685</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E80" s="1">
         <v>423</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="1">
-        <v>936</v>
-      </c>
-      <c r="C80" s="1">
-        <v>943</v>
-      </c>
-      <c r="D80" s="1">
-        <v>718</v>
-      </c>
-      <c r="E80" s="1">
-        <v>463</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="1">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="C81" s="1">
-        <v>648</v>
+        <v>943</v>
       </c>
       <c r="D81" s="1">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="E81" s="1">
-        <v>10703</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="1">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="C82" s="1">
-        <v>844</v>
+        <v>648</v>
       </c>
       <c r="D82" s="1">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E82" s="1">
-        <v>10704</v>
+        <v>10703</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" s="1">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="C83" s="1">
-        <v>882</v>
+        <v>844</v>
       </c>
       <c r="D83" s="1">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E83" s="1">
-        <v>632</v>
+        <v>10704</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="1">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="C84" s="1">
-        <v>656</v>
+        <v>882</v>
       </c>
       <c r="D84" s="1">
-        <v>414</v>
+        <v>741</v>
       </c>
       <c r="E84" s="1">
-        <v>982</v>
+        <v>632</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="1">
-        <v>1007</v>
+        <v>968</v>
       </c>
       <c r="C85" s="1">
-        <v>962</v>
+        <v>656</v>
       </c>
       <c r="D85" s="1">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E85" s="1">
-        <v>19</v>
+        <v>982</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="1">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="C86" s="1">
-        <v>767</v>
+        <v>962</v>
       </c>
       <c r="D86" s="1">
-        <v>609</v>
+        <v>422</v>
       </c>
       <c r="E86" s="1">
-        <v>918</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" s="1">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="C87" s="1">
-        <v>1021</v>
+        <v>767</v>
       </c>
       <c r="D87" s="1">
-        <v>1044</v>
+        <v>609</v>
       </c>
       <c r="E87" s="1">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="1">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="C88" s="1">
-        <v>1085</v>
+        <v>1021</v>
       </c>
       <c r="D88" s="1">
-        <v>475</v>
+        <v>1044</v>
       </c>
       <c r="E88" s="1">
-        <v>934</v>
+        <v>926</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="1">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="C89" s="1">
-        <v>558</v>
+        <v>1085</v>
       </c>
       <c r="D89" s="1">
-        <v>170</v>
+        <v>475</v>
       </c>
       <c r="E89" s="1">
-        <v>843</v>
+        <v>934</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="1">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="C90" s="1">
-        <v>838</v>
+        <v>558</v>
       </c>
       <c r="D90" s="1">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="E90" s="1">
-        <v>1037</v>
+        <v>843</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" s="1">
-        <v>989</v>
+        <v>1049</v>
       </c>
       <c r="C91" s="1">
-        <v>654</v>
+        <v>838</v>
       </c>
       <c r="D91" s="1">
-        <v>1020</v>
+        <v>218</v>
       </c>
       <c r="E91" s="1">
-        <v>1084</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="1">
-        <v>91</v>
+        <v>989</v>
       </c>
       <c r="C92" s="1">
-        <v>702</v>
+        <v>654</v>
       </c>
       <c r="D92" s="1">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="E92" s="1">
-        <v>502</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="1">
+        <v>91</v>
+      </c>
+      <c r="C93" s="1">
+        <v>702</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1029</v>
+      </c>
+      <c r="E93" s="1">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="1">
         <v>846</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C94" s="1">
         <v>889</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D94" s="1">
         <v>325</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C94" s="1">
-        <v>929</v>
-      </c>
-      <c r="D94" s="1">
-        <v>255</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C95" s="1">
-        <v>981</v>
+        <v>929</v>
       </c>
       <c r="D95" s="1">
-        <v>127</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C96" s="1">
-        <v>201</v>
+        <v>981</v>
       </c>
       <c r="D96" s="1">
-        <v>64</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" s="1">
-        <v>1047</v>
+        <v>201</v>
       </c>
       <c r="D97" s="1">
-        <v>1120</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C98" s="1">
-        <v>1070</v>
+        <v>1047</v>
       </c>
       <c r="D98" s="1">
-        <v>1113</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C99" s="1">
-        <v>1038</v>
+        <v>1070</v>
       </c>
       <c r="D99" s="1">
-        <v>155</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C100" s="1">
-        <v>1062</v>
+        <v>1038</v>
       </c>
       <c r="D100" s="1">
-        <v>59</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C101" s="1">
-        <v>1030</v>
+        <v>1062</v>
       </c>
       <c r="D101" s="1">
-        <v>362</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C102" s="1">
-        <v>113</v>
+        <v>1030</v>
       </c>
       <c r="D102" s="1">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" s="1">
-        <v>1094</v>
+        <v>113</v>
       </c>
       <c r="D103" s="1">
-        <v>1077</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C104" s="1">
-        <v>1128</v>
+        <v>1094</v>
       </c>
       <c r="D104" s="1">
-        <v>149</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C105" s="1">
-        <v>478</v>
+        <v>1128</v>
       </c>
       <c r="D105" s="1">
-        <v>15</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" s="1">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="D106" s="1">
-        <v>181</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" s="1">
-        <v>878</v>
+        <v>510</v>
       </c>
       <c r="D107" s="1">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" s="1">
-        <v>657</v>
+        <v>878</v>
       </c>
       <c r="D108" s="1">
-        <v>599</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C109" s="1">
-        <v>950</v>
+        <v>657</v>
       </c>
       <c r="D109" s="1">
-        <v>907</v>
+        <v>599</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C110" s="1">
-        <v>974</v>
+        <v>950</v>
       </c>
       <c r="D110" s="1">
-        <v>575</v>
+        <v>907</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C111" s="1">
-        <v>1102</v>
+        <v>974</v>
       </c>
       <c r="D111" s="1">
-        <v>930</v>
+        <v>575</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C112" s="1">
-        <v>2</v>
+        <v>1102</v>
       </c>
       <c r="D112" s="1">
-        <v>262</v>
+        <v>930</v>
       </c>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C113" s="1">
-        <v>450</v>
+        <v>2</v>
       </c>
       <c r="D113" s="1">
-        <v>27</v>
+        <v>262</v>
       </c>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" s="1">
-        <v>854</v>
+        <v>450</v>
       </c>
       <c r="D114" s="1">
-        <v>178</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C115" s="1">
-        <v>577</v>
+        <v>854</v>
       </c>
       <c r="D115" s="1">
-        <v>321</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C116" s="1">
-        <v>625</v>
+        <v>577</v>
       </c>
       <c r="D116" s="1">
-        <v>483</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C117" s="1">
-        <v>945</v>
+        <v>625</v>
       </c>
       <c r="D117" s="1">
-        <v>186</v>
+        <v>483</v>
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C118" s="1">
-        <v>1026</v>
+        <v>945</v>
       </c>
       <c r="D118" s="1">
-        <v>1097</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C119" s="1">
-        <v>1006</v>
+        <v>1026</v>
       </c>
       <c r="D119" s="1">
-        <v>390</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C120" s="1">
-        <v>670</v>
+        <v>1006</v>
       </c>
       <c r="D120" s="1">
-        <v>332</v>
+        <v>390</v>
       </c>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C121" s="1">
-        <v>1086</v>
+        <v>670</v>
       </c>
       <c r="D121" s="1">
-        <v>38</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C122" s="1">
-        <v>1111</v>
+        <v>1086</v>
       </c>
       <c r="D122" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C123" s="1">
-        <v>9</v>
+        <v>1111</v>
       </c>
       <c r="D123" s="1">
-        <v>118</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C124" s="1">
-        <v>461</v>
+        <v>9</v>
       </c>
       <c r="D124" s="1">
-        <v>223</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C125" s="1">
-        <v>182305693</v>
+        <v>461</v>
       </c>
       <c r="D125" s="1">
-        <v>72</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C126" s="1">
-        <v>182305697</v>
+        <v>182305693</v>
       </c>
       <c r="D126" s="1">
-        <v>263</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C127" s="1">
-        <v>182305701</v>
+        <v>182305697</v>
       </c>
       <c r="D127" s="1">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C128" s="1">
-        <v>182305705</v>
+        <v>182305701</v>
       </c>
       <c r="D128" s="1">
-        <v>830</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C129" s="1">
-        <v>182305709</v>
+        <v>182305705</v>
       </c>
       <c r="D129" s="1">
-        <v>452</v>
+        <v>830</v>
       </c>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C130" s="1">
-        <v>182305713</v>
+        <v>182305709</v>
       </c>
       <c r="D130" s="1">
-        <v>523</v>
+        <v>452</v>
       </c>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C131" s="1">
-        <v>873</v>
+        <v>182305713</v>
       </c>
       <c r="D131" s="1">
-        <v>763</v>
+        <v>523</v>
       </c>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C132" s="1">
-        <v>806</v>
+        <v>873</v>
       </c>
       <c r="D132" s="1">
-        <v>914</v>
+        <v>763</v>
       </c>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C133" s="1">
-        <v>1035</v>
+        <v>806</v>
       </c>
       <c r="D133" s="1">
-        <v>1109</v>
+        <v>914</v>
       </c>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" s="1">
-        <v>1090</v>
+        <v>1035</v>
       </c>
       <c r="D134" s="1">
-        <v>126</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" s="1">
-        <v>862</v>
+        <v>1090</v>
       </c>
       <c r="D135" s="1">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C136" s="1">
-        <v>893</v>
+        <v>862</v>
       </c>
       <c r="D136" s="1">
-        <v>347</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C137" s="1">
-        <v>36</v>
+        <v>893</v>
       </c>
       <c r="D137" s="1">
-        <v>286</v>
+        <v>347</v>
       </c>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" s="1">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="D138" s="1">
-        <v>338</v>
+        <v>286</v>
       </c>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C139" s="1">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="D139" s="1">
-        <v>689</v>
+        <v>338</v>
       </c>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C140" s="1">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="D140" s="1">
-        <v>88</v>
+        <v>689</v>
       </c>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C141" s="1">
-        <v>638</v>
+        <v>187</v>
       </c>
       <c r="D141" s="1">
-        <v>210</v>
+        <v>88</v>
       </c>
     </row>
     <row r="142" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C142" s="1">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="D142" s="1">
-        <v>491</v>
+        <v>210</v>
       </c>
     </row>
     <row r="143" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C143" s="1">
-        <v>897</v>
+        <v>662</v>
       </c>
       <c r="D143" s="1">
-        <v>525</v>
+        <v>491</v>
       </c>
     </row>
     <row r="144" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C144" s="1">
-        <v>1106</v>
+        <v>897</v>
       </c>
       <c r="D144" s="1">
-        <v>1126</v>
+        <v>525</v>
       </c>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C145" s="1">
-        <v>1010</v>
+        <v>1106</v>
       </c>
       <c r="D145" s="1">
-        <v>1</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C146" s="1">
-        <v>1058</v>
+        <v>1010</v>
       </c>
       <c r="D146" s="1">
-        <v>515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C147" s="1">
-        <v>857</v>
+        <v>1058</v>
       </c>
       <c r="D147" s="1">
-        <v>980</v>
+        <v>515</v>
       </c>
     </row>
     <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C148" s="1">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="D148" s="1">
-        <v>1004</v>
+        <v>980</v>
       </c>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" s="1">
-        <v>527</v>
+        <v>849</v>
       </c>
       <c r="D149" s="1">
-        <v>63</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C150" s="1">
-        <v>600</v>
+        <v>527</v>
       </c>
       <c r="D150" s="1">
-        <v>693</v>
+        <v>63</v>
       </c>
     </row>
     <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C151" s="1">
-        <v>678</v>
+        <v>600</v>
       </c>
       <c r="D151" s="1">
-        <v>946</v>
+        <v>693</v>
       </c>
     </row>
     <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C152" s="1">
-        <v>252</v>
+        <v>678</v>
       </c>
       <c r="D152" s="1">
-        <v>194</v>
+        <v>946</v>
       </c>
     </row>
     <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C153" s="1">
-        <v>156</v>
+        <v>252</v>
       </c>
       <c r="D153" s="1">
-        <v>226</v>
+        <v>194</v>
       </c>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C154" s="1">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="D154" s="1">
-        <v>356</v>
+        <v>226</v>
       </c>
     </row>
     <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C155" s="1">
-        <v>735</v>
+        <v>243</v>
       </c>
       <c r="D155" s="1">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C156" s="1">
-        <v>251</v>
+        <v>735</v>
       </c>
       <c r="D156" s="1">
-        <v>173</v>
+        <v>364</v>
       </c>
     </row>
     <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C157" s="1">
-        <v>816</v>
+        <v>251</v>
       </c>
       <c r="D157" s="1">
-        <v>470</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C158" s="1">
-        <v>847</v>
+        <v>816</v>
       </c>
       <c r="D158" s="1">
-        <v>614</v>
+        <v>470</v>
       </c>
     </row>
     <row r="159" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C159" s="1">
-        <v>954</v>
+        <v>847</v>
       </c>
       <c r="D159" s="1">
-        <v>797</v>
+        <v>614</v>
       </c>
     </row>
     <row r="160" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C160" s="1">
-        <v>1005</v>
+        <v>954</v>
       </c>
       <c r="D160" s="1">
-        <v>804</v>
+        <v>797</v>
       </c>
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C161" s="1">
-        <v>696</v>
+        <v>1005</v>
       </c>
       <c r="D161" s="1">
-        <v>313</v>
+        <v>804</v>
       </c>
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C162" s="1">
-        <v>643</v>
+        <v>696</v>
       </c>
       <c r="D162" s="1">
-        <v>851</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C163" s="1">
-        <v>759</v>
+        <v>643</v>
       </c>
       <c r="D163" s="1">
-        <v>842</v>
+        <v>851</v>
       </c>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C164" s="1">
-        <v>791</v>
+        <v>759</v>
       </c>
       <c r="D164" s="1">
-        <v>4</v>
+        <v>842</v>
       </c>
     </row>
     <row r="165" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C165" s="1">
-        <v>249</v>
+        <v>791</v>
       </c>
       <c r="D165" s="1">
-        <v>580</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C166" s="1">
-        <v>456</v>
+        <v>249</v>
       </c>
       <c r="D166" s="1">
-        <v>271</v>
+        <v>580</v>
       </c>
     </row>
     <row r="167" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C167" s="1">
-        <v>959</v>
+        <v>456</v>
       </c>
       <c r="D167" s="1">
-        <v>874</v>
+        <v>271</v>
       </c>
     </row>
     <row r="168" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C168" s="1">
-        <v>755</v>
+        <v>959</v>
       </c>
       <c r="D168" s="1">
-        <v>460</v>
+        <v>874</v>
       </c>
     </row>
     <row r="169" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C169" s="1">
-        <v>990</v>
+        <v>755</v>
       </c>
       <c r="D169" s="1">
-        <v>381</v>
+        <v>460</v>
       </c>
     </row>
     <row r="170" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C170" s="1">
-        <v>1023</v>
+        <v>990</v>
       </c>
       <c r="D170" s="1">
-        <v>749</v>
+        <v>381</v>
       </c>
     </row>
     <row r="171" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C171" s="1">
-        <v>520</v>
+        <v>1023</v>
       </c>
       <c r="D171" s="1">
-        <v>246</v>
+        <v>749</v>
       </c>
     </row>
     <row r="172" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C172" s="1">
-        <v>598</v>
+        <v>520</v>
       </c>
       <c r="D172" s="1">
-        <v>128</v>
+        <v>246</v>
       </c>
     </row>
     <row r="173" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C173" s="1">
-        <v>1074</v>
+        <v>598</v>
       </c>
       <c r="D173" s="1">
-        <v>26</v>
+        <v>128</v>
       </c>
     </row>
     <row r="174" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C174" s="1">
-        <v>905</v>
+        <v>1074</v>
       </c>
       <c r="D174" s="1">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="175" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C175" s="1">
-        <v>1114</v>
+        <v>905</v>
       </c>
       <c r="D175" s="1">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="176" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C176" s="1">
-        <v>233</v>
+        <v>1114</v>
       </c>
       <c r="D176" s="1">
-        <v>494</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C177" s="1">
-        <v>601</v>
+        <v>233</v>
       </c>
       <c r="D177" s="1">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="178" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C178" s="1">
-        <v>649</v>
+        <v>601</v>
       </c>
       <c r="D178" s="1">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="179" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C179" s="1">
-        <v>281</v>
+        <v>649</v>
       </c>
       <c r="D179" s="1">
-        <v>795</v>
+        <v>511</v>
       </c>
     </row>
     <row r="180" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C180" s="1">
-        <v>1066</v>
+        <v>281</v>
       </c>
       <c r="D180" s="1">
-        <v>50</v>
+        <v>795</v>
       </c>
     </row>
     <row r="181" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C181" s="1">
-        <v>401</v>
+        <v>1066</v>
       </c>
       <c r="D181" s="1">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C182" s="1">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="D182" s="1">
-        <v>587</v>
+        <v>67</v>
       </c>
     </row>
     <row r="183" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C183" s="1">
-        <v>1046</v>
+        <v>433</v>
       </c>
       <c r="D183" s="1">
-        <v>215</v>
+        <v>587</v>
       </c>
     </row>
     <row r="184" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C184" s="1">
-        <v>441</v>
+        <v>1046</v>
       </c>
       <c r="D184" s="1">
-        <v>531</v>
+        <v>215</v>
       </c>
     </row>
     <row r="185" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C185" s="1">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="D185" s="1">
-        <v>628</v>
+        <v>531</v>
       </c>
     </row>
     <row r="186" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C186" s="1">
-        <v>973</v>
+        <v>421</v>
       </c>
       <c r="D186" s="1">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="187" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C187" s="1">
-        <v>573</v>
+        <v>973</v>
       </c>
       <c r="D187" s="1">
-        <v>706</v>
+        <v>634</v>
       </c>
     </row>
     <row r="188" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C188" s="1">
-        <v>613</v>
+        <v>573</v>
       </c>
       <c r="D188" s="1">
-        <v>1061</v>
+        <v>706</v>
       </c>
     </row>
     <row r="189" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C189" s="1">
-        <v>74</v>
+        <v>613</v>
       </c>
       <c r="D189" s="1">
-        <v>616</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="190" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C190" s="1">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="D190" s="1">
-        <v>214</v>
+        <v>616</v>
       </c>
     </row>
     <row r="191" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C191" s="1">
-        <v>593</v>
+        <v>121</v>
       </c>
       <c r="D191" s="1">
-        <v>35</v>
+        <v>214</v>
       </c>
     </row>
     <row r="192" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C192" s="1">
-        <v>821</v>
+        <v>593</v>
       </c>
       <c r="D192" s="1">
-        <v>975</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C193" s="1">
-        <v>721</v>
+        <v>821</v>
       </c>
       <c r="D193" s="1">
-        <v>115</v>
+        <v>975</v>
       </c>
     </row>
     <row r="194" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C194" s="1">
-        <v>778</v>
+        <v>721</v>
       </c>
       <c r="D194" s="1">
-        <v>757</v>
+        <v>115</v>
       </c>
     </row>
     <row r="195" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C195" s="1">
-        <v>33</v>
+        <v>778</v>
       </c>
       <c r="D195" s="1">
-        <v>231</v>
+        <v>757</v>
       </c>
     </row>
     <row r="196" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C196" s="1">
-        <v>305</v>
+        <v>33</v>
       </c>
       <c r="D196" s="1">
-        <v>66</v>
+        <v>231</v>
       </c>
     </row>
     <row r="197" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C197" s="1">
-        <v>750</v>
+        <v>305</v>
       </c>
       <c r="D197" s="1">
-        <v>374</v>
+        <v>66</v>
       </c>
     </row>
     <row r="198" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C198" s="1">
-        <v>269</v>
+        <v>750</v>
       </c>
       <c r="D198" s="1">
-        <v>1052</v>
+        <v>374</v>
       </c>
     </row>
     <row r="199" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C199" s="1">
-        <v>869</v>
+        <v>269</v>
       </c>
       <c r="D199" s="1">
-        <v>12</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="200" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C200" s="1">
-        <v>902</v>
+        <v>869</v>
       </c>
       <c r="D200" s="1">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C201" s="1">
-        <v>377</v>
+        <v>902</v>
       </c>
       <c r="D201" s="1">
-        <v>197</v>
+        <v>100</v>
       </c>
     </row>
     <row r="202" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C202" s="1">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="D202" s="1">
-        <v>591</v>
+        <v>197</v>
       </c>
     </row>
     <row r="203" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C203" s="1">
-        <v>805</v>
+        <v>393</v>
       </c>
       <c r="D203" s="1">
-        <v>872</v>
+        <v>591</v>
       </c>
     </row>
     <row r="204" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C204" s="1">
-        <v>41</v>
+        <v>805</v>
       </c>
       <c r="D204" s="1">
-        <v>771</v>
+        <v>872</v>
       </c>
     </row>
     <row r="205" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C205" s="1">
-        <v>501</v>
+        <v>41</v>
       </c>
       <c r="D205" s="1">
-        <v>612</v>
+        <v>771</v>
       </c>
     </row>
     <row r="206" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C206" s="1">
-        <v>565</v>
+        <v>501</v>
       </c>
       <c r="D206" s="1">
-        <v>7</v>
+        <v>612</v>
       </c>
     </row>
     <row r="207" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C207" s="1">
-        <v>257</v>
+        <v>565</v>
       </c>
       <c r="D207" s="1">
-        <v>867</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C208" s="1">
-        <v>469</v>
+        <v>257</v>
       </c>
       <c r="D208" s="1">
-        <v>122</v>
+        <v>867</v>
       </c>
     </row>
     <row r="209" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C209" s="1">
-        <v>312782578</v>
+        <v>469</v>
       </c>
       <c r="D209" s="1">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="210" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C210" s="1">
-        <v>312782582</v>
+        <v>312782578</v>
       </c>
       <c r="D210" s="1">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="211" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C211" s="1">
-        <v>312782586</v>
+        <v>312782582</v>
       </c>
       <c r="D211" s="1">
-        <v>280</v>
+        <v>114</v>
       </c>
     </row>
     <row r="212" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C212" s="1">
-        <v>312782590</v>
+        <v>312782586</v>
       </c>
       <c r="D212" s="1">
-        <v>880</v>
+        <v>280</v>
       </c>
     </row>
     <row r="213" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C213" s="1">
-        <v>312782594</v>
+        <v>312782590</v>
       </c>
       <c r="D213" s="1">
-        <v>898</v>
+        <v>880</v>
       </c>
     </row>
     <row r="214" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C214" s="1">
-        <v>312782598</v>
+        <v>312782594</v>
       </c>
       <c r="D214" s="1">
-        <v>931</v>
+        <v>898</v>
       </c>
     </row>
     <row r="215" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C215" s="1">
-        <v>312782632</v>
+        <v>312782598</v>
       </c>
       <c r="D215" s="1">
-        <v>1093</v>
+        <v>931</v>
       </c>
     </row>
     <row r="216" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C216" s="1">
-        <v>312782636</v>
+        <v>312782632</v>
       </c>
       <c r="D216" s="1">
-        <v>318</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="217" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C217" s="1">
-        <v>312782640</v>
+        <v>312782636</v>
       </c>
       <c r="D217" s="1">
-        <v>534</v>
+        <v>318</v>
       </c>
     </row>
     <row r="218" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C218" s="1">
-        <v>312782644</v>
+        <v>312782640</v>
       </c>
       <c r="D218" s="1">
-        <v>574</v>
+        <v>534</v>
       </c>
     </row>
     <row r="219" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C219" s="1">
-        <v>312782648</v>
+        <v>312782644</v>
       </c>
       <c r="D219" s="1">
-        <v>621</v>
+        <v>574</v>
       </c>
     </row>
     <row r="220" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C220" s="1">
-        <v>312782652</v>
+        <v>312782648</v>
       </c>
       <c r="D220" s="1">
-        <v>679</v>
+        <v>621</v>
       </c>
     </row>
     <row r="221" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C221" s="1">
-        <v>935</v>
+        <v>312782652</v>
       </c>
       <c r="D221" s="1">
-        <v>147</v>
+        <v>679</v>
       </c>
     </row>
     <row r="222" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C222" s="1">
-        <v>211</v>
+        <v>935</v>
       </c>
       <c r="D222" s="1">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="223" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C223" s="1">
-        <v>1015</v>
+        <v>211</v>
       </c>
       <c r="D223" s="1">
-        <v>604</v>
+        <v>162</v>
       </c>
     </row>
     <row r="224" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C224" s="1">
-        <v>919</v>
+        <v>1015</v>
       </c>
       <c r="D224" s="1">
-        <v>146</v>
+        <v>604</v>
       </c>
     </row>
     <row r="225" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C225" s="1">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="D225" s="1">
-        <v>238</v>
+        <v>146</v>
       </c>
     </row>
     <row r="226" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C226" s="1">
-        <v>588</v>
+        <v>927</v>
       </c>
       <c r="D226" s="1">
-        <v>350</v>
+        <v>238</v>
       </c>
     </row>
     <row r="227" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C227" s="1">
-        <v>296</v>
+        <v>588</v>
       </c>
       <c r="D227" s="1">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="228" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C228" s="1">
-        <v>772</v>
+        <v>296</v>
       </c>
       <c r="D228" s="1">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="229" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C229" s="1">
-        <v>810</v>
+        <v>772</v>
       </c>
       <c r="D229" s="1">
-        <v>207</v>
+        <v>354</v>
       </c>
     </row>
     <row r="230" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C230" s="1">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="D230" s="1">
-        <v>96</v>
+        <v>207</v>
       </c>
     </row>
     <row r="231" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C231" s="1">
-        <v>171</v>
+        <v>819</v>
       </c>
       <c r="D231" s="1">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="232" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C232" s="1">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="D232" s="1">
-        <v>711</v>
+        <v>101</v>
       </c>
     </row>
     <row r="233" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C233" s="1">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="D233" s="1">
-        <v>1039</v>
+        <v>711</v>
       </c>
     </row>
     <row r="234" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C234" s="1">
-        <v>84</v>
+        <v>363</v>
       </c>
       <c r="D234" s="1">
-        <v>903</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="235" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C235" s="1">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="D235" s="1">
-        <v>642</v>
+        <v>903</v>
       </c>
     </row>
     <row r="236" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C236" s="1">
-        <v>707</v>
+        <v>132</v>
       </c>
       <c r="D236" s="1">
-        <v>651</v>
+        <v>642</v>
       </c>
     </row>
     <row r="237" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C237" s="1">
-        <v>556</v>
+        <v>707</v>
       </c>
       <c r="D237" s="1">
-        <v>429</v>
+        <v>651</v>
       </c>
     </row>
     <row r="238" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C238" s="1">
-        <v>827</v>
+        <v>556</v>
       </c>
       <c r="D238" s="1">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="239" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C239" s="1">
-        <v>1054</v>
+        <v>827</v>
       </c>
       <c r="D239" s="1">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="240" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C240" s="1">
-        <v>1081</v>
+        <v>1054</v>
       </c>
       <c r="D240" s="1">
-        <v>653</v>
+        <v>445</v>
       </c>
     </row>
     <row r="241" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C241" s="1">
-        <v>448</v>
+        <v>1081</v>
       </c>
       <c r="D241" s="1">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="242" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C242" s="1">
-        <v>412</v>
+        <v>448</v>
       </c>
       <c r="D242" s="1">
-        <v>576</v>
+        <v>661</v>
       </c>
     </row>
     <row r="243" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C243" s="1">
-        <v>630</v>
+        <v>412</v>
       </c>
       <c r="D243" s="1">
-        <v>939</v>
+        <v>576</v>
       </c>
     </row>
     <row r="244" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C244" s="1">
-        <v>440</v>
+        <v>630</v>
       </c>
       <c r="D244" s="1">
-        <v>143</v>
+        <v>939</v>
       </c>
     </row>
     <row r="245" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C245" s="1">
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="D245" s="1">
-        <v>839</v>
+        <v>143</v>
       </c>
     </row>
     <row r="246" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C246" s="1">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D246" s="1">
-        <v>1048</v>
+        <v>839</v>
       </c>
     </row>
     <row r="247" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C247" s="1">
-        <v>582</v>
+        <v>484</v>
       </c>
       <c r="D247" s="1">
-        <v>372</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="248" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C248" s="1">
-        <v>620</v>
+        <v>582</v>
       </c>
       <c r="D248" s="1">
-        <v>83</v>
+        <v>372</v>
       </c>
     </row>
     <row r="249" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C249" s="1">
-        <v>910</v>
+        <v>620</v>
       </c>
       <c r="D249" s="1">
-        <v>136</v>
+        <v>83</v>
       </c>
     </row>
     <row r="250" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C250" s="1">
-        <v>969</v>
+        <v>910</v>
       </c>
       <c r="D250" s="1">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="251" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C251" s="1">
-        <v>288</v>
+        <v>969</v>
       </c>
       <c r="D251" s="1">
-        <v>203</v>
+        <v>106</v>
       </c>
     </row>
     <row r="252" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C252" s="1">
-        <v>1125</v>
+        <v>288</v>
       </c>
       <c r="D252" s="1">
-        <v>235</v>
+        <v>203</v>
       </c>
     </row>
     <row r="253" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C253" s="1">
-        <v>608</v>
+        <v>1125</v>
       </c>
       <c r="D253" s="1">
-        <v>307</v>
+        <v>235</v>
       </c>
     </row>
     <row r="254" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C254" s="1">
-        <v>680</v>
+        <v>608</v>
       </c>
       <c r="D254" s="1">
-        <v>1098</v>
+        <v>307</v>
       </c>
     </row>
     <row r="255" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C255" s="1">
-        <v>996</v>
+        <v>680</v>
       </c>
       <c r="D255" s="1">
-        <v>1107</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="256" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C256" s="1">
-        <v>328</v>
+        <v>996</v>
       </c>
       <c r="D256" s="1">
-        <v>852</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="257" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C257" s="1">
-        <v>1101</v>
+        <v>328</v>
       </c>
       <c r="D257" s="1">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="258" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C258" s="1">
-        <v>783</v>
+        <v>1101</v>
       </c>
       <c r="D258" s="1">
-        <v>970</v>
+        <v>859</v>
       </c>
     </row>
     <row r="259" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C259" s="1">
-        <v>831</v>
+        <v>783</v>
       </c>
       <c r="D259" s="1">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="260" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C260" s="1">
-        <v>120</v>
+        <v>831</v>
       </c>
       <c r="D260" s="1">
-        <v>177</v>
+        <v>978</v>
       </c>
     </row>
     <row r="261" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C261" s="1">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="D261" s="1">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="262" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C262" s="1">
-        <v>344</v>
+        <v>163</v>
       </c>
       <c r="D262" s="1">
-        <v>1069</v>
+        <v>169</v>
       </c>
     </row>
     <row r="263" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C263" s="1">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="D263" s="1">
-        <v>209</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="264" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C264" s="1">
-        <v>704</v>
+        <v>314</v>
       </c>
       <c r="D264" s="1">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="265" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C265" s="1">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="D265" s="1">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="266" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C266" s="1">
-        <v>800</v>
+        <v>694</v>
       </c>
       <c r="D266" s="1">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="267" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C267" s="1">
-        <v>675</v>
+        <v>800</v>
       </c>
       <c r="D267" s="1">
-        <v>765</v>
+        <v>217</v>
       </c>
     </row>
     <row r="268" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C268" s="1">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="D268" s="1">
-        <v>773</v>
+        <v>765</v>
       </c>
     </row>
     <row r="269" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C269" s="1">
-        <v>671</v>
+        <v>699</v>
       </c>
       <c r="D269" s="1">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="270" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C270" s="1">
-        <v>965</v>
+        <v>671</v>
       </c>
       <c r="D270" s="1">
-        <v>206</v>
+        <v>781</v>
       </c>
     </row>
     <row r="271" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C271" s="1">
-        <v>774</v>
+        <v>965</v>
       </c>
       <c r="D271" s="1">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="272" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C272" s="1">
-        <v>906</v>
+        <v>774</v>
       </c>
       <c r="D272" s="1">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="273" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C273" s="1">
-        <v>279</v>
-      </c>
-      <c r="D273" t="s">
-        <v>3</v>
+        <v>906</v>
+      </c>
+      <c r="D273" s="1">
+        <v>222</v>
       </c>
     </row>
     <row r="274" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C274" s="1">
-        <v>442</v>
+        <v>279</v>
+      </c>
+      <c r="D274" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C275" s="1">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row r="276" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C276" s="1">
-        <v>545</v>
+        <v>434</v>
       </c>
     </row>
     <row r="277" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C277" s="1">
-        <v>610</v>
+        <v>545</v>
       </c>
     </row>
     <row r="278" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C278" s="1">
-        <v>274</v>
+        <v>610</v>
       </c>
     </row>
     <row r="279" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C279" s="1">
-        <v>330</v>
+        <v>274</v>
       </c>
     </row>
     <row r="280" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C280" s="1">
-        <v>542</v>
+        <v>330</v>
       </c>
     </row>
     <row r="281" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C281" s="1">
-        <v>430</v>
+        <v>542</v>
       </c>
     </row>
     <row r="282" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C282" s="1">
-        <v>687</v>
+        <v>430</v>
       </c>
     </row>
     <row r="283" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C283" s="1">
-        <v>590</v>
+        <v>687</v>
       </c>
     </row>
     <row r="284" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C284" s="1">
-        <v>622</v>
+        <v>590</v>
       </c>
     </row>
     <row r="285" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C285" s="1">
-        <v>312782550</v>
+        <v>622</v>
       </c>
     </row>
     <row r="286" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C286" s="1">
-        <v>312782554</v>
+        <v>312782550</v>
       </c>
     </row>
     <row r="287" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C287" s="1">
-        <v>312782558</v>
+        <v>312782554</v>
       </c>
     </row>
     <row r="288" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C288" s="1">
-        <v>312782562</v>
+        <v>312782558</v>
       </c>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C289" s="1">
-        <v>312782566</v>
+        <v>312782562</v>
       </c>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C290" s="1">
-        <v>312782570</v>
+        <v>312782566</v>
       </c>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C291" s="1">
-        <v>312782604</v>
+        <v>312782570</v>
       </c>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C292" s="1">
-        <v>312782608</v>
+        <v>312782604</v>
       </c>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C293" s="1">
-        <v>312782612</v>
+        <v>312782608</v>
       </c>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C294" s="1">
-        <v>312782616</v>
+        <v>312782612</v>
       </c>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C295" s="1">
-        <v>312782620</v>
+        <v>312782616</v>
       </c>
     </row>
     <row r="296" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C296" s="1">
-        <v>312782624</v>
+        <v>312782620</v>
       </c>
     </row>
     <row r="297" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C297" s="1">
-        <v>97</v>
+        <v>312782624</v>
       </c>
     </row>
     <row r="298" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C298" s="1">
-        <v>1127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="299" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C299" s="1">
-        <v>234</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="300" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C300" s="1">
-        <v>289</v>
+        <v>234</v>
       </c>
     </row>
     <row r="301" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C301" s="1">
-        <v>729</v>
+        <v>289</v>
       </c>
     </row>
     <row r="302" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C302" s="1">
-        <v>786</v>
+        <v>729</v>
       </c>
     </row>
     <row r="303" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C303" s="1">
-        <v>335</v>
+        <v>786</v>
       </c>
     </row>
     <row r="304" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C304" s="1">
-        <v>368</v>
+        <v>335</v>
       </c>
     </row>
     <row r="305" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C305" s="1">
-        <v>540</v>
+        <v>368</v>
       </c>
     </row>
     <row r="306" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C306" s="1">
-        <v>692</v>
+        <v>540</v>
       </c>
     </row>
     <row r="307" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C307" s="1">
-        <v>888</v>
+        <v>692</v>
       </c>
     </row>
     <row r="308" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C308" s="1">
-        <v>836</v>
+        <v>888</v>
       </c>
     </row>
     <row r="309" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C309" s="1">
-        <v>427</v>
+        <v>836</v>
       </c>
     </row>
     <row r="310" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C310" s="1">
-        <v>988</v>
+        <v>427</v>
       </c>
     </row>
     <row r="311" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C311" s="1">
-        <v>977</v>
+        <v>988</v>
       </c>
     </row>
     <row r="312" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C312" s="1">
-        <v>1045</v>
+        <v>977</v>
       </c>
     </row>
     <row r="313" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C313" s="1">
-        <v>703</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="314" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C314" s="1">
-        <v>583</v>
+        <v>703</v>
       </c>
     </row>
     <row r="315" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C315" s="1">
-        <v>952</v>
+        <v>583</v>
       </c>
     </row>
     <row r="316" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C316" s="1">
-        <v>966</v>
+        <v>952</v>
       </c>
     </row>
     <row r="317" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C317" s="1">
-        <v>131</v>
+        <v>966</v>
       </c>
     </row>
     <row r="318" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C318" s="1">
-        <v>303</v>
+        <v>131</v>
       </c>
     </row>
     <row r="319" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C319" s="1">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="320" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C320" s="1">
-        <v>451</v>
+        <v>311</v>
       </c>
     </row>
     <row r="321" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C321" s="1">
-        <v>319</v>
+        <v>451</v>
       </c>
     </row>
     <row r="322" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C322" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C323" s="1">
         <v>780</v>
       </c>
     </row>
@@ -3485,12 +4154,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3844,7 +4513,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E17" s="11">
         <v>25.4</v>
@@ -3864,7 +4533,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E18" s="11">
         <v>25.4</v>
@@ -3884,7 +4553,7 @@
         <v>41</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E19" s="11">
         <v>25.4</v>
@@ -3906,7 +4575,7 @@
         <v>41</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E20" s="11">
         <v>25.4</v>
@@ -3926,7 +4595,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E21" s="11">
         <v>25.4</v>
@@ -3946,7 +4615,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E22" s="11">
         <v>25.4</v>
@@ -3966,7 +4635,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E23" s="11">
         <v>25.4</v>
@@ -3986,7 +4655,7 @@
         <v>41</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E24" s="11">
         <v>25.4</v>
@@ -4006,7 +4675,7 @@
         <v>41</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E25" s="11">
         <v>25.4</v>
@@ -4026,7 +4695,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E26" s="11">
         <v>25.4</v>
@@ -4046,7 +4715,7 @@
         <v>41</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E27" s="11">
         <v>25.4</v>
@@ -4066,7 +4735,7 @@
         <v>41</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E28" s="11">
         <v>25.4</v>
@@ -4086,7 +4755,7 @@
         <v>41</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E29" s="11">
         <v>25.4</v>
@@ -4106,7 +4775,7 @@
         <v>41</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E30" s="11">
         <v>25.4</v>
@@ -4126,7 +4795,7 @@
         <v>41</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E31" s="11">
         <v>25.4</v>
@@ -4144,7 +4813,7 @@
         <v>41</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E32" s="11">
         <v>-23</v>
@@ -4170,7 +4839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
@@ -4669,12 +5338,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Publish/publish_win/nutil/Example.xlsx
+++ b/Publish/publish_win/nutil/Example.xlsx
@@ -9,28 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25440" windowHeight="14016" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25440" windowHeight="14016"/>
   </bookViews>
   <sheets>
-    <sheet name="CrashTest" sheetId="16" r:id="rId1"/>
+    <sheet name="AutoContrast" sheetId="14" r:id="rId1"/>
     <sheet name="PCounter" sheetId="15" r:id="rId2"/>
-    <sheet name="LargeFilesTest" sheetId="11" r:id="rId3"/>
-    <sheet name="WorkTest" sheetId="13" r:id="rId4"/>
-    <sheet name="AutoContrast" sheetId="14" r:id="rId5"/>
+    <sheet name="TiffTransform" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
   <si>
     <t>Animal</t>
   </si>
   <si>
-    <t>Renamed for correct order</t>
-  </si>
-  <si>
     <t>Rotation CCW</t>
   </si>
   <si>
@@ -88,9 +83,6 @@
     <t>test1</t>
   </si>
   <si>
-    <t>test2</t>
-  </si>
-  <si>
     <t>test3</t>
   </si>
   <si>
@@ -106,9 +98,6 @@
     <t>Backgroud Color</t>
   </si>
   <si>
-    <t>TestRotation</t>
-  </si>
-  <si>
     <t>Thumbnail size</t>
   </si>
   <si>
@@ -139,12 +128,6 @@
     <t>Thumbnail clip size XxX</t>
   </si>
   <si>
-    <t>LargeFiles</t>
-  </si>
-  <si>
-    <t>Thumbnail clip size XxX. Type size "0" to ignore generation of thumbnails.</t>
-  </si>
-  <si>
     <t>png</t>
   </si>
   <si>
@@ -202,9 +185,6 @@
     <t>Hippo</t>
   </si>
   <si>
-    <t>Pcounter Name</t>
-  </si>
-  <si>
     <t>s002</t>
   </si>
   <si>
@@ -439,78 +419,6 @@
     <t>test23</t>
   </si>
   <si>
-    <t>CrashTest</t>
-  </si>
-  <si>
-    <t>H201_10b-Image Export-46_s1</t>
-  </si>
-  <si>
-    <t>H201_10b-Image Export-46_s2</t>
-  </si>
-  <si>
-    <t>H201_10b-Image Export-46_s3</t>
-  </si>
-  <si>
-    <t>d:\data\rotation\H201b\</t>
-  </si>
-  <si>
-    <t>d:\data\rotation\output\</t>
-  </si>
-  <si>
-    <t>H201_1b-Image Export-37_s1</t>
-  </si>
-  <si>
-    <t>H201_1b-Image Export-37_s2</t>
-  </si>
-  <si>
-    <t>H201_1b-Image Export-37_s3</t>
-  </si>
-  <si>
-    <t>H201_1b-Image Export-37_s4</t>
-  </si>
-  <si>
-    <t>H201_1b-Image Export-37_s5</t>
-  </si>
-  <si>
-    <t>Test5</t>
-  </si>
-  <si>
-    <t>test15</t>
-  </si>
-  <si>
-    <t>H201_2b-Image Export-38_s1</t>
-  </si>
-  <si>
-    <t>H201_2b-Image Export-38_s2</t>
-  </si>
-  <si>
-    <t>H201_2b-Image Export-38_s3</t>
-  </si>
-  <si>
-    <t>H201_2b-Image Export-38_s4</t>
-  </si>
-  <si>
-    <t>H201_3b-Image Export-39_s1</t>
-  </si>
-  <si>
-    <t>H201_3b-Image Export-39_s2</t>
-  </si>
-  <si>
-    <t>H201_3b-Image Export-39_s3</t>
-  </si>
-  <si>
-    <t>H201_3b-Image Export-39_s4</t>
-  </si>
-  <si>
-    <t>H201_11b-Image Export-47_s1</t>
-  </si>
-  <si>
-    <t>H201_11b-Image Export-47_s2</t>
-  </si>
-  <si>
-    <t>H201_11b-Image Export-47_s3</t>
-  </si>
-  <si>
     <t>col:255,255,255</t>
   </si>
   <si>
@@ -527,6 +435,21 @@
   </si>
   <si>
     <t>c:\data\input\tg2576_m287_1D1_FINAL\2_atlas_dir</t>
+  </si>
+  <si>
+    <t>c:\data\inputContrast\</t>
+  </si>
+  <si>
+    <t>Std cutoff</t>
+  </si>
+  <si>
+    <t>TiffTransform</t>
+  </si>
+  <si>
+    <t>Area finder</t>
+  </si>
+  <si>
+    <t>Standard deviation pixel value (cutoff)</t>
   </si>
 </sst>
 </file>
@@ -932,65 +855,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="39.44140625" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" s="12" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B4" s="4">
         <v>255</v>
       </c>
@@ -1002,68 +936,78 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="B6" s="4" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="B7" s="4">
-        <v>256</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="8" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1072,408 +1016,6 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="11">
-        <v>45</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="11">
-        <v>45</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="11">
-        <v>45</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="11">
-        <v>34</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="11">
-        <v>-34</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="11">
-        <v>32</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="11">
-        <v>543</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="11">
-        <v>745</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="11">
-        <v>4362</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="11">
-        <v>2345</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="11">
-        <v>4235</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="11">
-        <v>7</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="11">
-        <v>683</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="11">
-        <v>345</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="11">
-        <v>345</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="11">
-        <v>45</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" s="11">
-        <v>8</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" s="11">
-        <v>84</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="11">
-        <v>6453</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="2:10" ht="21" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -1483,14 +1025,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"Rotation, AutoContrast, PCounter"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>"jpeg, lzw, none"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>"Rotation"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1498,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1513,16 +1056,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -1531,16 +1074,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -1549,10 +1092,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1565,7 +1108,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4">
         <v>255</v>
@@ -1585,10 +1128,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1601,13 +1144,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1619,10 +1162,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1635,10 +1178,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -1651,15 +1194,15 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -1667,7 +1210,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B11" s="4">
         <v>60</v>
@@ -1675,29 +1218,29 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1705,7 +1248,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1713,7 +1256,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1721,7 +1264,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1729,7 +1272,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1737,7 +1280,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1745,7 +1288,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1753,7 +1296,7 @@
     </row>
     <row r="21" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1761,7 +1304,7 @@
     </row>
     <row r="22" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1769,7 +1312,7 @@
     </row>
     <row r="23" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1777,7 +1320,7 @@
     </row>
     <row r="24" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1785,7 +1328,7 @@
     </row>
     <row r="25" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1793,7 +1336,7 @@
     </row>
     <row r="26" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1801,7 +1344,7 @@
     </row>
     <row r="27" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -1809,7 +1352,7 @@
     </row>
     <row r="28" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1817,7 +1360,7 @@
     </row>
     <row r="29" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -1825,7 +1368,7 @@
     </row>
     <row r="30" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1833,7 +1376,7 @@
     </row>
     <row r="31" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -1841,7 +1384,7 @@
     </row>
     <row r="32" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1849,7 +1392,7 @@
     </row>
     <row r="33" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1857,7 +1400,7 @@
     </row>
     <row r="34" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1865,7 +1408,7 @@
     </row>
     <row r="35" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -1873,7 +1416,7 @@
     </row>
     <row r="36" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -1881,7 +1424,7 @@
     </row>
     <row r="37" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1889,7 +1432,7 @@
     </row>
     <row r="38" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -1897,7 +1440,7 @@
     </row>
     <row r="39" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -1905,7 +1448,7 @@
     </row>
     <row r="40" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1913,7 +1456,7 @@
     </row>
     <row r="41" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -1921,7 +1464,7 @@
     </row>
     <row r="42" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1929,7 +1472,7 @@
     </row>
     <row r="43" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1937,7 +1480,7 @@
     </row>
     <row r="44" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -1945,7 +1488,7 @@
     </row>
     <row r="45" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -1953,7 +1496,7 @@
     </row>
     <row r="46" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -1961,7 +1504,7 @@
     </row>
     <row r="47" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -1969,7 +1512,7 @@
     </row>
     <row r="48" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -1977,7 +1520,7 @@
     </row>
     <row r="49" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -1985,7 +1528,7 @@
     </row>
     <row r="50" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -1993,7 +1536,7 @@
     </row>
     <row r="51" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -2001,7 +1544,7 @@
     </row>
     <row r="52" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -2009,7 +1552,7 @@
     </row>
     <row r="53" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -2017,7 +1560,7 @@
     </row>
     <row r="54" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -2025,7 +1568,7 @@
     </row>
     <row r="55" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -2033,7 +1576,7 @@
     </row>
     <row r="56" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -2041,7 +1584,7 @@
     </row>
     <row r="57" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -2049,7 +1592,7 @@
     </row>
     <row r="58" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -2057,7 +1600,7 @@
     </row>
     <row r="59" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -2065,7 +1608,7 @@
     </row>
     <row r="60" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -2073,7 +1616,7 @@
     </row>
     <row r="61" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -2081,7 +1624,7 @@
     </row>
     <row r="62" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -2089,7 +1632,7 @@
     </row>
     <row r="63" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -2097,7 +1640,7 @@
     </row>
     <row r="64" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -2105,7 +1648,7 @@
     </row>
     <row r="65" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -2113,7 +1656,7 @@
     </row>
     <row r="66" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -2121,7 +1664,7 @@
     </row>
     <row r="67" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -2129,7 +1672,7 @@
     </row>
     <row r="68" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -2137,7 +1680,7 @@
     </row>
     <row r="69" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -2145,7 +1688,7 @@
     </row>
     <row r="70" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -2153,7 +1696,7 @@
     </row>
     <row r="71" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -2161,7 +1704,7 @@
     </row>
     <row r="72" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -2169,53 +1712,53 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
@@ -3890,7 +3433,7 @@
         <v>279</v>
       </c>
       <c r="D274" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="3:4" x14ac:dyDescent="0.3">
@@ -4156,10 +3699,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4173,16 +3716,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -4193,16 +3736,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -4213,13 +3756,13 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4230,7 +3773,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4">
         <v>255</v>
@@ -4243,7 +3786,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -4254,16 +3797,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4274,18 +3817,18 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -4296,16 +3839,16 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4">
         <v>256</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -4316,13 +3859,13 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -4335,7 +3878,7 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -4353,28 +3896,28 @@
         <v>0</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="H10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -4382,22 +3925,22 @@
     </row>
     <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="11">
         <v>-45</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>3</v>
+      <c r="F11" s="11">
+        <v>1</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -4410,15 +3953,17 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="11">
-        <v>12.56</v>
-      </c>
-      <c r="F12" s="11"/>
+        <v>94.23</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -4430,15 +3975,17 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="11">
-        <v>94.23</v>
-      </c>
-      <c r="F13" s="11"/>
+        <v>75.23</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -4450,15 +3997,17 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="11">
-        <v>75.23</v>
-      </c>
-      <c r="F14" s="11"/>
+        <v>-110.423</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -4470,15 +4019,17 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="11">
-        <v>-110.423</v>
-      </c>
-      <c r="F15" s="11"/>
+        <v>25.4</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -4490,15 +4041,17 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="E16" s="11">
         <v>25.4</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -4510,15 +4063,17 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E17" s="11">
         <v>25.4</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -4530,15 +4085,17 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E18" s="11">
         <v>25.4</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="11">
+        <v>2.5</v>
+      </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -4548,17 +4105,21 @@
     </row>
     <row r="19" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C19" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E19" s="11">
         <v>25.4</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="11">
+        <v>2.5</v>
+      </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -4568,19 +4129,19 @@
     </row>
     <row r="20" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E20" s="11">
         <v>25.4</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="11">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -4592,10 +4153,10 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E21" s="11">
         <v>25.4</v>
@@ -4612,10 +4173,10 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E22" s="11">
         <v>25.4</v>
@@ -4632,10 +4193,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E23" s="11">
         <v>25.4</v>
@@ -4652,10 +4213,10 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E24" s="11">
         <v>25.4</v>
@@ -4672,10 +4233,10 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E25" s="11">
         <v>25.4</v>
@@ -4692,10 +4253,10 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E26" s="11">
         <v>25.4</v>
@@ -4712,10 +4273,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E27" s="11">
         <v>25.4</v>
@@ -4732,10 +4293,10 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E28" s="11">
         <v>25.4</v>
@@ -4752,18 +4313,18 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E29" s="11">
         <v>25.4</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -4772,10 +4333,10 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E30" s="11">
         <v>25.4</v>
@@ -4789,33 +4350,13 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
       <c r="C31" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E31" s="11">
-        <v>25.4</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="C32" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="11">
         <v>-23</v>
       </c>
     </row>
@@ -4823,9 +4364,6 @@
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>"jpeg, lzw, none"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>"Rotation"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>"Yes, No"</formula1>
@@ -4833,692 +4371,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
       <formula1>"png,jpg,gif,tif"</formula1>
     </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4">
-        <v>255</v>
-      </c>
-      <c r="C4" s="4">
-        <v>255</v>
-      </c>
-      <c r="D4" s="4">
-        <v>255</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4">
-        <v>256</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="11">
-        <v>-45</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>"Rotation"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"jpeg, lzw, none"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"png,jpg,gif,tif"</formula1>
+      <formula1>"Rotation, AutoContrast, PCounter"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="4">
-        <v>255</v>
-      </c>
-      <c r="C4" s="4">
-        <v>255</v>
-      </c>
-      <c r="D4" s="4">
-        <v>255</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4">
-        <v>256</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>"png,jpg,gif,tif"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>"Rotation, AutoContrast"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"jpeg, lzw, none"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Publish/publish_win/nutil/Example.xlsx
+++ b/Publish/publish_win/nutil/Example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25440" windowHeight="14016"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25440" windowHeight="14016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AutoContrast" sheetId="14" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="145">
   <si>
     <t>Animal</t>
   </si>
@@ -146,9 +146,6 @@
     <t>c:\data\outputContrast\</t>
   </si>
   <si>
-    <t>PCounter</t>
-  </si>
-  <si>
     <t>Color check</t>
   </si>
   <si>
@@ -450,6 +447,15 @@
   </si>
   <si>
     <t>Standard deviation pixel value (cutoff)</t>
+  </si>
+  <si>
+    <t>ObjectCounter</t>
+  </si>
+  <si>
+    <t>Flips horizontal</t>
+  </si>
+  <si>
+    <t>Flips vertical</t>
   </si>
 </sst>
 </file>
@@ -857,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -948,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -983,7 +989,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="4">
         <v>150</v>
@@ -992,7 +998,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1025,11 +1031,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>"Rotation, AutoContrast, PCounter"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>"jpeg, lzw, none"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+      <formula1>"Rotation, AutoContrast,ObjectCounter"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1059,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1077,7 +1083,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1108,7 +1114,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="4">
         <v>255</v>
@@ -1131,7 +1137,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1147,7 +1153,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -1162,10 +1168,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1178,10 +1184,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -1194,7 +1200,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>37</v>
@@ -1202,7 +1208,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -1210,7 +1216,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="4">
         <v>60</v>
@@ -1218,10 +1224,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I12" t="s">
         <v>2</v>
@@ -1229,7 +1235,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1240,7 +1246,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1248,7 +1254,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1256,7 +1262,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1264,7 +1270,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1272,7 +1278,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1280,7 +1286,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1288,7 +1294,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1296,7 +1302,7 @@
     </row>
     <row r="21" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1304,7 +1310,7 @@
     </row>
     <row r="22" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1312,7 +1318,7 @@
     </row>
     <row r="23" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1320,7 +1326,7 @@
     </row>
     <row r="24" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1328,7 +1334,7 @@
     </row>
     <row r="25" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1336,7 +1342,7 @@
     </row>
     <row r="26" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1344,7 +1350,7 @@
     </row>
     <row r="27" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -1352,7 +1358,7 @@
     </row>
     <row r="28" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1360,7 +1366,7 @@
     </row>
     <row r="29" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -1368,7 +1374,7 @@
     </row>
     <row r="30" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1376,7 +1382,7 @@
     </row>
     <row r="31" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -1384,7 +1390,7 @@
     </row>
     <row r="32" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1392,7 +1398,7 @@
     </row>
     <row r="33" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1400,7 +1406,7 @@
     </row>
     <row r="34" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1408,7 +1414,7 @@
     </row>
     <row r="35" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -1416,7 +1422,7 @@
     </row>
     <row r="36" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -1424,7 +1430,7 @@
     </row>
     <row r="37" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1432,7 +1438,7 @@
     </row>
     <row r="38" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -1440,7 +1446,7 @@
     </row>
     <row r="39" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -1448,7 +1454,7 @@
     </row>
     <row r="40" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1456,7 +1462,7 @@
     </row>
     <row r="41" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -1464,7 +1470,7 @@
     </row>
     <row r="42" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1472,7 +1478,7 @@
     </row>
     <row r="43" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1480,7 +1486,7 @@
     </row>
     <row r="44" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -1488,7 +1494,7 @@
     </row>
     <row r="45" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -1496,7 +1502,7 @@
     </row>
     <row r="46" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -1504,7 +1510,7 @@
     </row>
     <row r="47" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -1512,7 +1518,7 @@
     </row>
     <row r="48" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -1520,7 +1526,7 @@
     </row>
     <row r="49" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -1528,7 +1534,7 @@
     </row>
     <row r="50" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -1536,7 +1542,7 @@
     </row>
     <row r="51" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -1544,7 +1550,7 @@
     </row>
     <row r="52" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -1552,7 +1558,7 @@
     </row>
     <row r="53" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -1560,7 +1566,7 @@
     </row>
     <row r="54" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -1568,7 +1574,7 @@
     </row>
     <row r="55" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -1576,7 +1582,7 @@
     </row>
     <row r="56" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -1584,7 +1590,7 @@
     </row>
     <row r="57" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -1592,7 +1598,7 @@
     </row>
     <row r="58" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -1600,7 +1606,7 @@
     </row>
     <row r="59" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -1608,7 +1614,7 @@
     </row>
     <row r="60" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -1616,7 +1622,7 @@
     </row>
     <row r="61" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -1624,7 +1630,7 @@
     </row>
     <row r="62" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -1632,7 +1638,7 @@
     </row>
     <row r="63" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -1640,7 +1646,7 @@
     </row>
     <row r="64" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -1648,7 +1654,7 @@
     </row>
     <row r="65" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -1656,7 +1662,7 @@
     </row>
     <row r="66" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -1664,7 +1670,7 @@
     </row>
     <row r="67" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -1672,7 +1678,7 @@
     </row>
     <row r="68" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -1680,7 +1686,7 @@
     </row>
     <row r="69" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -1688,7 +1694,7 @@
     </row>
     <row r="70" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -1696,7 +1702,7 @@
     </row>
     <row r="71" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -1704,7 +1710,7 @@
     </row>
     <row r="72" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -1712,7 +1718,7 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -1723,16 +1729,16 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D76" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="E76" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F76" t="s">
         <v>2</v>
@@ -1740,16 +1746,16 @@
     </row>
     <row r="77" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="D77" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D77" s="16" t="s">
-        <v>134</v>
-      </c>
       <c r="E77" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F77" s="16" t="s">
         <v>2</v>
@@ -3687,7 +3693,7 @@
       <formula1>"jpeg, lzw, none"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>"Rotation, AutoContrast, PCounter"</formula1>
+      <formula1>"Rotation, AutoContrast,ObjectCounter"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
       <formula1>"png,jpg,gif,tif"</formula1>
@@ -3701,8 +3707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3739,7 +3745,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3942,7 +3948,9 @@
       <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="1"/>
@@ -3962,12 +3970,16 @@
         <v>94.23</v>
       </c>
       <c r="F12" s="11">
-        <v>2</v>
-      </c>
-      <c r="G12" s="11"/>
+        <v>-1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
@@ -3984,12 +3996,16 @@
         <v>75.23</v>
       </c>
       <c r="F13" s="11">
-        <v>2</v>
-      </c>
-      <c r="G13" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-1</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
@@ -4006,9 +4022,11 @@
         <v>-110.423</v>
       </c>
       <c r="F14" s="11">
-        <v>2</v>
-      </c>
-      <c r="G14" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="1"/>
@@ -4030,7 +4048,9 @@
       <c r="F15" s="11">
         <v>1</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="1"/>
@@ -4044,7 +4064,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="11">
         <v>25.4</v>
@@ -4052,7 +4072,9 @@
       <c r="F16" s="11">
         <v>1</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="1"/>
@@ -4066,7 +4088,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="11">
         <v>25.4</v>
@@ -4074,7 +4096,9 @@
       <c r="F17" s="11">
         <v>1</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="1"/>
@@ -4088,15 +4112,17 @@
         <v>36</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="11">
         <v>25.4</v>
       </c>
       <c r="F18" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="G18" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="1"/>
@@ -4112,15 +4138,17 @@
         <v>36</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="11">
         <v>25.4</v>
       </c>
       <c r="F19" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="G19" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="1"/>
@@ -4134,15 +4162,17 @@
         <v>36</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="11">
         <v>25.4</v>
       </c>
       <c r="F20" s="11">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G20" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="1"/>
@@ -4156,7 +4186,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="11">
         <v>25.4</v>
@@ -4176,7 +4206,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="11">
         <v>25.4</v>
@@ -4196,7 +4226,7 @@
         <v>36</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="11">
         <v>25.4</v>
@@ -4216,7 +4246,7 @@
         <v>36</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="11">
         <v>25.4</v>
@@ -4236,7 +4266,7 @@
         <v>36</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="11">
         <v>25.4</v>
@@ -4256,7 +4286,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="11">
         <v>25.4</v>
@@ -4276,7 +4306,7 @@
         <v>36</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="11">
         <v>25.4</v>
@@ -4296,7 +4326,7 @@
         <v>36</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="11">
         <v>25.4</v>
@@ -4316,7 +4346,7 @@
         <v>36</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="11">
         <v>25.4</v>
@@ -4336,7 +4366,7 @@
         <v>36</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" s="11">
         <v>25.4</v>
@@ -4354,7 +4384,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" s="11">
         <v>-23</v>
@@ -4372,7 +4402,7 @@
       <formula1>"png,jpg,gif,tif"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
-      <formula1>"Rotation, AutoContrast, PCounter"</formula1>
+      <formula1>"Rotation, AutoContrast,ObjectCounter"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Publish/publish_win/nutil/Example.xlsx
+++ b/Publish/publish_win/nutil/Example.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25440" windowHeight="14016" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25440" windowHeight="14016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AutoContrast" sheetId="14" r:id="rId1"/>
-    <sheet name="PCounter" sheetId="15" r:id="rId2"/>
+    <sheet name="ObjectCounter" sheetId="15" r:id="rId2"/>
     <sheet name="TiffTransform" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="147">
   <si>
     <t>Animal</t>
   </si>
@@ -182,18 +182,6 @@
     <t>Hippo</t>
   </si>
   <si>
-    <t>s002</t>
-  </si>
-  <si>
-    <t>s006</t>
-  </si>
-  <si>
-    <t>s010</t>
-  </si>
-  <si>
-    <t>s014</t>
-  </si>
-  <si>
     <t>s018</t>
   </si>
   <si>
@@ -456,6 +444,24 @@
   </si>
   <si>
     <t>Flips vertical</t>
+  </si>
+  <si>
+    <t>Anchor file</t>
+  </si>
+  <si>
+    <t>C:\data\input\tg2576_m287_1D1_FINAL\6_atlas_xml_file\tg2576_m287_1D1_SY_cur_MCH_cur_Martin_Allen_v3.xml</t>
+  </si>
+  <si>
+    <t>Nifti size</t>
+  </si>
+  <si>
+    <t>Area XYZ count per area</t>
+  </si>
+  <si>
+    <t>nifti file size cubed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower values = fewer XYZ points </t>
   </si>
 </sst>
 </file>
@@ -537,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -555,7 +561,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -954,7 +959,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -989,7 +994,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B7" s="4">
         <v>150</v>
@@ -998,7 +1003,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1047,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J323"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,7 +1070,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1083,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1137,7 +1142,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1153,7 +1158,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -1171,7 +1176,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1216,61 +1221,71 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B11" s="4">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>113</v>
-      </c>
+      <c r="A12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="I12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
+      <c r="A13" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="4">
+        <v>128</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="I13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
+      <c r="A14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1278,7 +1293,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1286,7 +1301,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1294,7 +1309,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1302,7 +1317,7 @@
     </row>
     <row r="21" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1310,7 +1325,7 @@
     </row>
     <row r="22" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1318,7 +1333,7 @@
     </row>
     <row r="23" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1326,7 +1341,7 @@
     </row>
     <row r="24" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1334,7 +1349,7 @@
     </row>
     <row r="25" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1342,7 +1357,7 @@
     </row>
     <row r="26" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -1350,7 +1365,7 @@
     </row>
     <row r="27" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -1358,7 +1373,7 @@
     </row>
     <row r="28" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -1366,7 +1381,7 @@
     </row>
     <row r="29" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -1374,7 +1389,7 @@
     </row>
     <row r="30" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -1382,7 +1397,7 @@
     </row>
     <row r="31" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -1390,7 +1405,7 @@
     </row>
     <row r="32" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1398,7 +1413,7 @@
     </row>
     <row r="33" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1406,7 +1421,7 @@
     </row>
     <row r="34" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1414,7 +1429,7 @@
     </row>
     <row r="35" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -1422,7 +1437,7 @@
     </row>
     <row r="36" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -1430,7 +1445,7 @@
     </row>
     <row r="37" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1438,7 +1453,7 @@
     </row>
     <row r="38" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -1446,7 +1461,7 @@
     </row>
     <row r="39" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -1454,7 +1469,7 @@
     </row>
     <row r="40" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1462,7 +1477,7 @@
     </row>
     <row r="41" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -1470,7 +1485,7 @@
     </row>
     <row r="42" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1478,7 +1493,7 @@
     </row>
     <row r="43" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1486,7 +1501,7 @@
     </row>
     <row r="44" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -1494,7 +1509,7 @@
     </row>
     <row r="45" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -1502,7 +1517,7 @@
     </row>
     <row r="46" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -1510,7 +1525,7 @@
     </row>
     <row r="47" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -1518,7 +1533,7 @@
     </row>
     <row r="48" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -1526,7 +1541,7 @@
     </row>
     <row r="49" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -1534,7 +1549,7 @@
     </row>
     <row r="50" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -1542,7 +1557,7 @@
     </row>
     <row r="51" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -1550,7 +1565,7 @@
     </row>
     <row r="52" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -1558,7 +1573,7 @@
     </row>
     <row r="53" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -1566,7 +1581,7 @@
     </row>
     <row r="54" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -1574,7 +1589,7 @@
     </row>
     <row r="55" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -1582,7 +1597,7 @@
     </row>
     <row r="56" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -1590,7 +1605,7 @@
     </row>
     <row r="57" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -1598,7 +1613,7 @@
     </row>
     <row r="58" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -1606,7 +1621,7 @@
     </row>
     <row r="59" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -1614,7 +1629,7 @@
     </row>
     <row r="60" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -1622,7 +1637,7 @@
     </row>
     <row r="61" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -1630,7 +1645,7 @@
     </row>
     <row r="62" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -1638,7 +1653,7 @@
     </row>
     <row r="63" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -1646,7 +1661,7 @@
     </row>
     <row r="64" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -1654,7 +1669,7 @@
     </row>
     <row r="65" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -1662,7 +1677,7 @@
     </row>
     <row r="66" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -1670,7 +1685,7 @@
     </row>
     <row r="67" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -1678,7 +1693,7 @@
     </row>
     <row r="68" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -1686,7 +1701,7 @@
     </row>
     <row r="69" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -1694,7 +1709,7 @@
     </row>
     <row r="70" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -1702,7 +1717,7 @@
     </row>
     <row r="71" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -1710,7 +1725,7 @@
     </row>
     <row r="72" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -1734,10 +1749,10 @@
       <c r="C76" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="15" t="s">
         <v>52</v>
       </c>
       <c r="F76" t="s">
@@ -1746,24 +1761,24 @@
     </row>
     <row r="77" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F77" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G77" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H77" s="16" t="s">
+      <c r="H77" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3707,8 +3722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3745,7 +3760,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3949,7 +3964,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -3973,12 +3988,12 @@
         <v>-1</v>
       </c>
       <c r="G12" s="11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -4004,7 +4019,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -4064,7 +4079,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E16" s="11">
         <v>25.4</v>
@@ -4088,7 +4103,7 @@
         <v>36</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E17" s="11">
         <v>25.4</v>
@@ -4112,7 +4127,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E18" s="11">
         <v>25.4</v>
@@ -4138,7 +4153,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E19" s="11">
         <v>25.4</v>
@@ -4162,7 +4177,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E20" s="11">
         <v>25.4</v>
@@ -4186,7 +4201,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E21" s="11">
         <v>25.4</v>
@@ -4206,7 +4221,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E22" s="11">
         <v>25.4</v>
@@ -4226,7 +4241,7 @@
         <v>36</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E23" s="11">
         <v>25.4</v>
@@ -4246,7 +4261,7 @@
         <v>36</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E24" s="11">
         <v>25.4</v>
@@ -4266,7 +4281,7 @@
         <v>36</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E25" s="11">
         <v>25.4</v>
@@ -4286,7 +4301,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E26" s="11">
         <v>25.4</v>
@@ -4306,7 +4321,7 @@
         <v>36</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E27" s="11">
         <v>25.4</v>
@@ -4326,7 +4341,7 @@
         <v>36</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E28" s="11">
         <v>25.4</v>
@@ -4346,7 +4361,7 @@
         <v>36</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E29" s="11">
         <v>25.4</v>
@@ -4366,7 +4381,7 @@
         <v>36</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E30" s="11">
         <v>25.4</v>
@@ -4384,7 +4399,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E31" s="11">
         <v>-23</v>
